--- a/C语言课程讲义_笔记/B站鹏哥/2024_3_28 P_18常见关键字.xlsx
+++ b/C语言课程讲义_笔记/B站鹏哥/2024_3_28 P_18常见关键字.xlsx
@@ -13,10 +13,6 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -146,6 +142,82 @@
         <a:xfrm>
           <a:off x="1666875" y="3829050"/>
           <a:ext cx="9153525" cy="4588120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>284699</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>8874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="8686800"/>
+          <a:ext cx="8409524" cy="5209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>12383</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11010900" y="9096375"/>
+          <a:ext cx="6146483" cy="4114800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -446,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="V38" sqref="V38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
